--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>719566.8175805962</v>
+        <v>717679.2360641942</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>79.97861261893982</v>
       </c>
       <c r="G2" t="n">
-        <v>193.3988030144735</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>84.16790000022183</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>194.7016335971157</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>197.4044546924294</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>285.0120783583006</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>72.20875484425794</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>9.461970681989468</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>63.36408002646252</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>114.3875550887377</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>207.0351854764311</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>161.7688861290247</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>204.1291651532052</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>256.2988324290044</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>211.2541671901476</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U19" t="n">
-        <v>140.8066899520706</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>59.77945773664944</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>2.861721009454499</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>31.42218700820975</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>118.4898845065117</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185831</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965534</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801216</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>42.20569823125265</v>
       </c>
       <c r="H31" t="n">
-        <v>39.08079428425586</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571498</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523579</v>
+        <v>54.76109577523584</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
         <v>196.934386695271</v>
@@ -3013,10 +3013,10 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463158</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224548</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1540.975404439291</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>1172.012887498879</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D2" t="n">
-        <v>813.7471888921284</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="E2" t="n">
-        <v>813.7471888921284</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="F2" t="n">
-        <v>402.7612841025208</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.44116270037</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.975404439291</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.975404439291</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.8510101265797</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>285.8510101265797</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>285.8510101265797</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>285.8510101265797</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>138.9610626286693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>513.840561024597</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>513.840561024597</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>513.840561024597</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>513.840561024597</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>513.840561024597</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265797</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265797</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>785.9420003258999</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>785.9420003258999</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>427.6763017191494</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626913</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1562.681172365833</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1172.541840390022</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>126.8811180266856</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>126.8811180266856</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="V7" t="n">
-        <v>295.8809182883532</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="W7" t="n">
-        <v>295.8809182883532</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="X7" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1193.238943380987</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>824.2764264405757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>466.0107278338252</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2526.577416610597</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2307.942749582659</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2054.180964220751</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.378275356799</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1193.238943380987</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5036,37 +5036,37 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1335.513355276059</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V13" t="n">
-        <v>1080.828867070172</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W13" t="n">
-        <v>791.4116970332116</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="X13" t="n">
-        <v>563.4221461351941</v>
+        <v>303.4081673726143</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,31 +5264,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5300,28 +5300,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>874.9271131227918</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W16" t="n">
-        <v>616.0394035985448</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="X16" t="n">
-        <v>616.0394035985448</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5516,46 +5516,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967827</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703574</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>843.1711433963917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U19" t="n">
-        <v>1245.612187370161</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1245.612187370161</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>1245.612187370161</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X19" t="n">
-        <v>1245.612187370161</v>
+        <v>157.6003821033661</v>
       </c>
       <c r="Y19" t="n">
-        <v>1024.819608226631</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>565.2896273329885</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>562.3990000507113</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5923,7 +5923,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1467.176687721327</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1267.256677636879</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1043.471262426384</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>754.3426236399426</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W22" t="n">
-        <v>786.0822064765186</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>786.0822064765186</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>565.2896273329885</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,16 +5972,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,37 +5999,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,25 +6169,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018334</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6203,10 +6203,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,10 +6218,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336721</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,10 +6479,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163766</v>
+        <v>439.5324299542168</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698405</v>
+        <v>326.3571123076806</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388754</v>
+        <v>232.0013381767155</v>
       </c>
       <c r="E31" t="n">
-        <v>304.8808237378531</v>
+        <v>139.8491098756926</v>
       </c>
       <c r="F31" t="n">
-        <v>304.8808237378531</v>
+        <v>139.8491098756926</v>
       </c>
       <c r="G31" t="n">
-        <v>192.4663673390444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,13 +6622,13 @@
         <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,19 +6637,19 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
         <v>1335.260356661998</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818924</v>
+        <v>902.6804289818921</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652455</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652455</v>
+        <v>565.420029503086</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6677,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6719,10 +6719,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>306.3284467737876</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802517</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7357,7 +7357,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7433,13 +7433,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045204</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7731,19 +7731,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>50.62661940943505</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>288.4091825776757</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>18.73797368291349</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,13 +10674,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,22 +11379,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23419,16 +23419,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>124.4684662695526</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888959</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>30.2241659075866</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>14.45548819888953</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>145.4306624465067</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>158.8051956154454</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>164.3851000891733</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>78.54216539558305</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>79.43092547709159</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338585</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338474</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437423</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.08461360356796</v>
       </c>
       <c r="H31" t="n">
-        <v>54.62977745472325</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571503</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
-        <v>351926.1537639381</v>
+        <v>351926.1537639382</v>
       </c>
       <c r="F2" t="n">
-        <v>351926.1537639381</v>
+        <v>351926.153763938</v>
       </c>
       <c r="G2" t="n">
-        <v>351926.1537639382</v>
+        <v>351926.1537639378</v>
       </c>
       <c r="H2" t="n">
         <v>351926.1537639382</v>
@@ -26338,19 +26338,19 @@
         <v>351926.1537639381</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.9236107427</v>
+        <v>366139.9236107426</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389283</v>
+        <v>369468.7964389281</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389282</v>
+        <v>369468.7964389281</v>
       </c>
       <c r="N2" t="n">
         <v>369468.7964389282</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389282</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="P2" t="n">
         <v>369468.7964389282</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.171927646024903e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284553</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086698</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159208</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007454</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.73165600748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007504</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007497</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007539</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007504</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020399</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732799</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732795</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732796</v>
-      </c>
       <c r="O4" t="n">
+        <v>30335.51889732801</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,25 +26488,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-451275.2095549476</v>
+        <v>-451275.2095549473</v>
       </c>
       <c r="C6" t="n">
-        <v>138692.6696595969</v>
+        <v>138692.6696595971</v>
       </c>
       <c r="D6" t="n">
         <v>138692.669659597</v>
       </c>
       <c r="E6" t="n">
-        <v>-273137.9403176822</v>
+        <v>-273235.3994436543</v>
       </c>
       <c r="F6" t="n">
-        <v>252022.096159214</v>
+        <v>251924.6370332415</v>
       </c>
       <c r="G6" t="n">
-        <v>252022.0961592141</v>
+        <v>251924.6370332415</v>
       </c>
       <c r="H6" t="n">
-        <v>252022.096159214</v>
+        <v>251924.637033242</v>
       </c>
       <c r="I6" t="n">
-        <v>252022.0961592139</v>
+        <v>251924.6370332417</v>
       </c>
       <c r="J6" t="n">
-        <v>75598.87696662088</v>
+        <v>75501.41784064881</v>
       </c>
       <c r="K6" t="n">
-        <v>199267.7556074703</v>
+        <v>199249.261869536</v>
       </c>
       <c r="L6" t="n">
-        <v>231075.2649207079</v>
+        <v>231075.2649207077</v>
       </c>
       <c r="M6" t="n">
-        <v>106617.1564877377</v>
+        <v>106617.1564877375</v>
       </c>
       <c r="N6" t="n">
-        <v>241418.1717215749</v>
+        <v>241418.1717215748</v>
       </c>
       <c r="O6" t="n">
-        <v>241418.1717215748</v>
+        <v>241418.1717215744</v>
       </c>
       <c r="P6" t="n">
-        <v>197255.5664187293</v>
+        <v>197255.5664187292</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,28 +26738,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.714909557531129e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.92863350108373</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.714909557531129e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>326.8974331227716</v>
       </c>
       <c r="G2" t="n">
-        <v>220.3853670063214</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>83.14190225882908</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>57.43600972671231</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>184.5259153798324</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>121.8639673834109</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>62.75686694808029</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>216.2476847070477</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>318.5662900457992</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.02815772023379</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.54946787566368</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28801,70 +28801,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34123,46 +34123,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,43 +34202,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,43 +34284,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>309.5875389014632</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>138.6396521945092</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,13 +36045,13 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556551</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>621.6037559756885</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412253</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043176</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>169.3134122708527</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37394,13 +37394,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38099,22 +38099,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>481.9867828282178</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
